--- a/example.xlsx
+++ b/example.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://axessonline-my.sharepoint.com/personal/paul_faguet_axess_fr/Documents/Bureau/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_AD4D9D64A577C15A4A541811001C4D765ADEDD8F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D0C9F0F0-8A0E-4268-A619-E8C28E482D7B}"/>
+  <xr:revisionPtr revIDLastSave="67" documentId="11_AD4D9D64A577C15A4A541811001C4D765ADEDD8F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1A3A7836-6536-4589-8AE0-0352C551183E}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
   <si>
     <t>Article ID</t>
   </si>
@@ -60,20 +60,287 @@
     <t xml:space="preserve">Meta description </t>
   </si>
   <si>
-    <t>Texte</t>
-  </si>
-  <si>
-    <t>Résultat</t>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Obligatoire
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 
+1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Obligatoire</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+"Entre 500 et 1000", 
+"500", 
+"653", 
+etc.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Obligatoire</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+"Utiliser le vouvoiement", 
+"Utiliser un discours familier", 
+"Utiliser des termes simples avec des phrases courtes", 
+etc.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Obligatoire</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+"Cave à vin de vieillissement", 
+"Voiture sans permis", 
+"Béton de chanvre", 
+etc.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Obligatoire</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+"Catégorie", 
+"Article de blog", 
+"Newsletter", 
+"Page produit", 
+etc.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Obligatoire
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Nom du client : 
+"Ma Cave à Vin", 
+"Aixam", 
+"Vicat", 
+etc.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Obligatoire</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 
+"Libre", 
+"H1, 3 H2 et 4 H3 pour chaque sous-partie", 
+"&lt;h1&gt;[CAVE]&lt;/h1&gt;
+&lt;h2&gt;Qu'est ce qu'une [CAVE] ?&lt;/h2&gt;
+&lt;h2&gt;Comment choisir sa cave [CAVE] ?&lt;/h2&gt;
+&lt;h2&gt;Quelles marques de [CAVE] proposées sur Ma Cave a Vin ?&lt;/h2&gt;
+&lt;h2&gt;Nos conseils pour l'achat de votre [CAVE]&lt;/h2&gt;
+&lt;h2&gt;Comparer les [CAVE]&lt;/h2&gt;
+&lt;h2&gt;Quelle température pour une [CAVE] ?&lt;/h2&gt;
+&lt;h2&gt;Où installer sa [CAVE] ?&lt;/h2&gt;",
+etc.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Obligatoire</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+"Vins, caves à vin, vieillissement, température",
+"Voiture sans permis, voiture aixam",
+"Béton de chanvre", 
+etc.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Facultative</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+"",
+"aixam city sport, voiturette",
+"Louis Vicat",
+etc.</t>
+    </r>
+  </si>
+  <si>
+    <t>Facultative</t>
+  </si>
+  <si>
+    <t>Textes</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -99,8 +366,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -381,56 +660,108 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M1"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="14.81640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.90625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="26.81640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="32" style="1" customWidth="1"/>
+    <col min="5" max="5" width="35.08984375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="28.1796875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="47.36328125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="17.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.08984375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="18.54296875" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.6328125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="7.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="8.7265625" style="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="246.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="B2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>12</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>